--- a/Communication/Daily-Notes/Phonics-sounds-of-alphabets.xlsx
+++ b/Communication/Daily-Notes/Phonics-sounds-of-alphabets.xlsx
@@ -159,24 +159,97 @@
     <t xml:space="preserve">pressing 2 alphabets will be raised </t>
   </si>
   <si>
-    <t>Organisation/Collaboration/Conservation</t>
-  </si>
-  <si>
     <t>ITY</t>
   </si>
   <si>
     <t xml:space="preserve">Strong E Sound at the end </t>
   </si>
   <si>
-    <t>Cityh/Eectricity/Velocity</t>
+    <t>City/Electricity/Velocity</t>
+  </si>
+  <si>
+    <r>
+      <t>Organi</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>za</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tion/Collabo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tion/Conser</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>va</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tion</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -269,17 +342,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -293,6 +357,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,47 +665,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="6"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="6"/>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -637,194 +713,194 @@
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="6"/>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="6"/>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5" t="s">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5" t="s">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="21" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5" t="s">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5" t="s">
+      <c r="D24" s="2"/>
+      <c r="E24" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="2"/>
+      <c r="E25" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -834,6 +910,7 @@
     <mergeCell ref="B21:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
